--- a/data/hotels_by_city/Houston/Houston_shard_454.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_454.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d4551372-Reviews-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-Nw-Beltway-8-West-Road.h6117517.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,936 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r601340521-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>4551372</t>
+  </si>
+  <si>
+    <t>601340521</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Okay, but better in Houston Area</t>
+  </si>
+  <si>
+    <t>The hotel was just that, a hotel. No extra space in the room, just 2 beds and the bath. No biscuits and gravy for breakfast.  Nothing special.  But nothing wrong either, clean, pool, gym, very good location to beltway 8.  Average, like my rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The hotel was just that, a hotel. No extra space in the room, just 2 beds and the bath. No biscuits and gravy for breakfast.  Nothing special.  But nothing wrong either, clean, pool, gym, very good location to beltway 8.  Average, like my rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r596336962-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596336962</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Happy guest</t>
+  </si>
+  <si>
+    <t>Perfect stay every time. The only place I stay in the Houston area now.I have tried others but this was my best stay.Employees are helpful and friendly.Always positive.Keep up the good work.Thank you MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Perfect stay every time. The only place I stay in the Houston area now.I have tried others but this was my best stay.Employees are helpful and friendly.Always positive.Keep up the good work.Thank you More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r595367427-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595367427</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Perfect quick getaway!</t>
+  </si>
+  <si>
+    <t>We just needed a night of rest. Having a 10yr old a 2 yr old and a 2month old takes its toll. We live just across the beltway so we had grandma babysit just so that we could get a lil shut eye. The place was perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We just needed a night of rest. Having a 10yr old a 2 yr old and a 2month old takes its toll. We live just across the beltway so we had grandma babysit just so that we could get a lil shut eye. The place was perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r574274329-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574274329</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r573720231-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573720231</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>The best LaQuinta we have stayed at in over 6 years. Awesome coffee machine, not one of those instant things. Smells clean, rooms were quite and clean. While many of our LaQuinta stays have been terrible this one was awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>The best LaQuinta we have stayed at in over 6 years. Awesome coffee machine, not one of those instant things. Smells clean, rooms were quite and clean. While many of our LaQuinta stays have been terrible this one was awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r542206460-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542206460</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>I am going to Houston weekly and have been staying here for the last past month. New hotel, convenient location to shopping, gym. Staff is very attentive, rooms are ready when I get to the hotel. Everyone is willing to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>I am going to Houston weekly and have been staying here for the last past month. New hotel, convenient location to shopping, gym. Staff is very attentive, rooms are ready when I get to the hotel. Everyone is willing to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r527127248-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527127248</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r524574594-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>524574594</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Hurricane stau</t>
+  </si>
+  <si>
+    <t>I want to thank management and staff for taking care of me in a difficult time. Rinesh the General Manager went above and beyond to make sure I had a place to stay....talking about juggling the balls! He had to move people around and to other La Quinta's to make room for me. I had no place to stay due to Hurricane Harvey and he made it happen. I appreciated everyone involved for their support. Rooms were perfect, clean, plenty of space, and most important a comfortable bed. I had a great 7 day stay. Thanks again to all!PaulMoreShow less</t>
+  </si>
+  <si>
+    <t>I want to thank management and staff for taking care of me in a difficult time. Rinesh the General Manager went above and beyond to make sure I had a place to stay....talking about juggling the balls! He had to move people around and to other La Quinta's to make room for me. I had no place to stay due to Hurricane Harvey and he made it happen. I appreciated everyone involved for their support. Rooms were perfect, clean, plenty of space, and most important a comfortable bed. I had a great 7 day stay. Thanks again to all!PaulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r510386678-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510386678</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Best Pet Friendly Hotels in the U.S.</t>
+  </si>
+  <si>
+    <t>I have stayed at LaQuinta exclusively because of their pet policy, and have NEVER had a problem at any of them.  I have my own pets and also do rescues, and the fact that they do not charge anything for my furry family members like other hotels do, is the reason I will continue to stay at LaQuintas, even if I don't have my pets with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at LaQuinta exclusively because of their pet policy, and have NEVER had a problem at any of them.  I have my own pets and also do rescues, and the fact that they do not charge anything for my furry family members like other hotels do, is the reason I will continue to stay at LaQuintas, even if I don't have my pets with me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r506047915-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506047915</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Our Stay in Houston</t>
+  </si>
+  <si>
+    <t>I've stayed here many times and will again. It's convenient, clean and the employees are good to us. There was a problem with accessing the internet for the first 24 hrs but the issue was resolved and there were silver particles in the ice coming out of the ice machine. We've never had an issue with the ice before.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed here many times and will again. It's convenient, clean and the employees are good to us. There was a problem with accessing the internet for the first 24 hrs but the issue was resolved and there were silver particles in the ice coming out of the ice machine. We've never had an issue with the ice before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r501352755-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501352755</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Great lodging</t>
+  </si>
+  <si>
+    <t>This hotel is about five old, it still has the new paint smell. I do not know why the occupancy rate is so low.  Pleasant rooms, great friendly staff, always willing to help. Overall quiet and enjoyable, it is a short distance from the interstate, which is no problem as far as sound is concerned. The breakfast is well stocked and adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh P, Director of Sales at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is about five old, it still has the new paint smell. I do not know why the occupancy rate is so low.  Pleasant rooms, great friendly staff, always willing to help. Overall quiet and enjoyable, it is a short distance from the interstate, which is no problem as far as sound is concerned. The breakfast is well stocked and adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r500601832-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500601832</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Great location for NW Houston, very convenient.  Friendly staff, clean hotel, everything you need, priced just right too! The staff paid attention to my online booking request and provided the room I had asked for.  Very happy customer!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Great location for NW Houston, very convenient.  Friendly staff, clean hotel, everything you need, priced just right too! The staff paid attention to my online booking request and provided the room I had asked for.  Very happy customer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r476976067-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476976067</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Comfort at a Great Price</t>
+  </si>
+  <si>
+    <t>I stayed at La Quinta for leisure and to relax. It was easy to reach from the Beltway and not hard to find. It is situated towards the back of a shopping center and is right behind several eating establishments, and next to an LA Fitness. On the other side is a gas station, Kroger (grocery store), and a few other shops. The area is nice and safe. The hotel itself was quaint and had a well designed interior. The lobby was considerably impressive for the price. I was greeted upon arriving and found the staff very pleasant to deal with for the rest of my stay. I had a king room and it was rather nice. The bathroom was average size but I loved the glass door on the shower! Note to those coming here: My particular room only had a shower floor and not a tub, so if you need a tub, keep that in mind. It suited my needs just fine. The bed was comfortable and the room was clean. The hotel offers a decent breakfast with a waffle maker, sausage, eggs, salsa, muffins, bread, bagels, cereal, and fresh fruit. I found it delicious! As for amenities, there is a fitness center and an outdoor pool. There is nothing I can really complain about. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at La Quinta for leisure and to relax. It was easy to reach from the Beltway and not hard to find. It is situated towards the back of a shopping center and is right behind several eating establishments, and next to an LA Fitness. On the other side is a gas station, Kroger (grocery store), and a few other shops. The area is nice and safe. The hotel itself was quaint and had a well designed interior. The lobby was considerably impressive for the price. I was greeted upon arriving and found the staff very pleasant to deal with for the rest of my stay. I had a king room and it was rather nice. The bathroom was average size but I loved the glass door on the shower! Note to those coming here: My particular room only had a shower floor and not a tub, so if you need a tub, keep that in mind. It suited my needs just fine. The bed was comfortable and the room was clean. The hotel offers a decent breakfast with a waffle maker, sausage, eggs, salsa, muffins, bread, bagels, cereal, and fresh fruit. I found it delicious! As for amenities, there is a fitness center and an outdoor pool. There is nothing I can really complain about. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r475447088-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475447088</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>I travel for dog sports and stay exclusively at LaQuinta - very happy with this particular location.  New facility - easy to find, very clean and had a huge breakfast bar.  Wish the location had a larger pet play/relief area with potty bags.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r469766367-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469766367</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Quality hotel and staff</t>
+  </si>
+  <si>
+    <t>This is one of the best LaQuinta's we have stayed at. This was our third stay at this property. We plan on staying at this property on our next trip to Houston.  Real clean and nice staff. Great location for the N/W Houston area.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r458002795-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458002795</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Always Clean</t>
+  </si>
+  <si>
+    <t>Seems like a newer La Quinta. It's clean and convenient. Never problems with staff or cleanliness. Pool is nice and the breakfast is average. Parking is not an issue and it is located to numerous fast food restaurants.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r449786782-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449786782</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Room was beautifully appointed, the bed was incredibly comfortable, everything was clean and tidy, the schnauzer really liked it too! Breakfast was great also, never expected waffles and Starbucks coffee. Would definitely stay here again and recommend it to others!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r438413264-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438413264</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Outstanding Property</t>
+  </si>
+  <si>
+    <t>This newer La Quinta property impressed on every level. From check in to check out, I was thoroughly satisfied. Check-in was quick and painless. I asked for a rollaway bed and it was in my room within 3-minutes (not a fan of the $15/night charge though). The continental breakfast was amazing and had plenty of choices. I highly recommend this La Quinta location.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r419638506-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419638506</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t>My a/c went out in my house during our hot months, and it got to 90 in the house.  So I needed a clean place for me and my cat to stay (I don't usually travel with cats but the cat was getting too hot as well).  I that the La Quinta was dog and cat friendly.  They do have some guidelines to follow.  When I called this location Mr. Patel was very helpful and understanding.  I ended up staying 3 nights.  The desk staff and management are great.  The hotel was very clean.  The bed was very comfortable.  The design is more modern and looks almost new.  The location is great in the same parking lot in walking distance is a whataburger , Salata (salads), pot belly sandwich, smoothie king, two pesos.  I would recommend this hotel for the price and quality.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>My a/c went out in my house during our hot months, and it got to 90 in the house.  So I needed a clean place for me and my cat to stay (I don't usually travel with cats but the cat was getting too hot as well).  I that the La Quinta was dog and cat friendly.  They do have some guidelines to follow.  When I called this location Mr. Patel was very helpful and understanding.  I ended up staying 3 nights.  The desk staff and management are great.  The hotel was very clean.  The bed was very comfortable.  The design is more modern and looks almost new.  The location is great in the same parking lot in walking distance is a whataburger , Salata (salads), pot belly sandwich, smoothie king, two pesos.  I would recommend this hotel for the price and quality.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r410704041-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410704041</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>New, Beautiful and Friendly</t>
+  </si>
+  <si>
+    <t>While you may encounter many older La Quinta Inns  this one is new and well maintained.  Friendly staff and well attended hot breakfast bar.  I've been there many times and always have good experience.  Small workout room and nice pool.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r398471391-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398471391</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY WONDERFUL</t>
+  </si>
+  <si>
+    <t>I am staying here for 1 month on business. Switched to this la quinta after a horrible night at the energy corridor location....so far it has been NOTHING LESS  than absolutely pleasant. The location is great, its not in the middle of busy city area, seems more outskirts but still surrounded by enough to not have to drive far for food/shopping. Check in was great- she was sure to make sure my rates for the month were correct as billed to my emplyers admin. The hotel itself Is nice and updated, very sleek and modern. BEAUTIFUL ROOMS, very spacious, I have a suite on 2nd floor w/everything I need. Used the gym last night downstairs and they had all the same things I use at 24 hour fitness , so it was EXTREMELY convenient (and much more peaceful). On my way out to work this morning their breakfast was DELICOUS ! no complaints at all, cannot wait to try the pool/hot tubMoreShow less</t>
+  </si>
+  <si>
+    <t>I am staying here for 1 month on business. Switched to this la quinta after a horrible night at the energy corridor location....so far it has been NOTHING LESS  than absolutely pleasant. The location is great, its not in the middle of busy city area, seems more outskirts but still surrounded by enough to not have to drive far for food/shopping. Check in was great- she was sure to make sure my rates for the month were correct as billed to my emplyers admin. The hotel itself Is nice and updated, very sleek and modern. BEAUTIFUL ROOMS, very spacious, I have a suite on 2nd floor w/everything I need. Used the gym last night downstairs and they had all the same things I use at 24 hour fitness , so it was EXTREMELY convenient (and much more peaceful). On my way out to work this morning their breakfast was DELICOUS ! no complaints at all, cannot wait to try the pool/hot tubMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r381296866-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381296866</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Outstanding Stay</t>
+  </si>
+  <si>
+    <t>Friendly staff and very Helpful.  Clean inside and outside.  We got a great night's sleep.  Bed was outstanding.  Shower was safe well designed.  Everything worked as it should.  The place to stay in Houston.   Staff had everything needed for a very fast check in.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r378505129-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378505129</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Soccer Stay</t>
+  </si>
+  <si>
+    <t>Loved "La Quinta Houston NW Beltway 8/ West RD it was super clean and the staff was very friendly.  The hotel was located right off the highway which made it easy to get around.  There were also many restaurants nearby which made it extremely easy to get something to eat even at a walking distance.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r377813369-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377813369</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels and this hotel and all of their staff go above and beyond to ensure all of their customers are satisfied with their stay. The hotel is always clean and well kept and all of the staff is very friendly and caring.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r355930665-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355930665</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, don't stay anywhere else for this value</t>
+  </si>
+  <si>
+    <t>I usually stay in more expensive places but this one surprised. We stayed here due to family staying here and I almost did not book here. This place has a beautiful design, decent beds, cleanest place ever and even a decent breakfast. The value is the best I have had at a hotel in many years. If you need a place to stay in Houston, look no further and I am picky.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r353757067-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353757067</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Houston Church Conference</t>
+  </si>
+  <si>
+    <t>I was in town for a Church Conference and I choose to stay at this LQ.  I was very pleased I did.  The hotel was clean and very well maintained.  The staff was friendly and helpful.  There was a nice variety for breakfast compared to some LQs I had stayed with previously.  I would recommend this hotel for future guests.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r350989295-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350989295</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and service</t>
+  </si>
+  <si>
+    <t>I appreciated this hotel and they offered an upgrade without  being asked!  The room was one of the best Ive had at most hotels. I was extremely pleased! It was a stressful time and the timing was perfect!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r333296106-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333296106</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel..But Wifi Inconsistent</t>
+  </si>
+  <si>
+    <t>Very nice new La Quinta.  Great location off the beltway.  Many food locations easy walking distance.  Hands down best breakfast bar ever in a La Quinta.  Even had a breakfast pizza during my stay, and had Starbucks coffee.Had small issue with dirty sheets at my arrival but this was quickly  remedied.  Second, no wifi at all on 2d or 3d floor from 10 pm until our check out.  They said they are working on this. Oh, and don't stay here for the views.  We viewed a drainage ditch. Still, I would stay again.  Very nice hotel..even had  fountain in an outdoor sitting area.  Very trendy decor, new, fresh, and  clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Very nice new La Quinta.  Great location off the beltway.  Many food locations easy walking distance.  Hands down best breakfast bar ever in a La Quinta.  Even had a breakfast pizza during my stay, and had Starbucks coffee.Had small issue with dirty sheets at my arrival but this was quickly  remedied.  Second, no wifi at all on 2d or 3d floor from 10 pm until our check out.  They said they are working on this. Oh, and don't stay here for the views.  We viewed a drainage ditch. Still, I would stay again.  Very nice hotel..even had  fountain in an outdoor sitting area.  Very trendy decor, new, fresh, and  clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r329606185-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329606185</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Wow What a Great Place</t>
+  </si>
+  <si>
+    <t>Some La Quinta's can be a dump like the one in Tallahassee, Fl but this one is fantastic and completely different. The staff are friendly and helpful.  The rooms are very nice and comfortable.  The shower is great. The decor is relaxing, new, and modern. Everything is spotless and smells good.  The breakfast was good with lots of options.  There is a Walgreens across the street and several good food places across the parking lot.  The location is great just off the Beltway 8 North.  You will have a great stay at this hotel.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r328127959-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328127959</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>FINE</t>
+  </si>
+  <si>
+    <t>Professional Development is needed in the area of arrival and departure greeting of guest. Had the gentleman on night duty greeted us upon arrival and when departing the birthday choice of a hotel would have been 5 Star. The young student may have had some negative family concerns going on this time and the last time I chose this NW Beltway8 West Road location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r325151323-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325151323</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, and Beautiful</t>
+  </si>
+  <si>
+    <t>As we travel around the country, La Quinta is our hotel of choice because we travel with two small, well-behaved dogs, and they are always welcome there. This La Quinta is exceptionally lovely. The man who greeted us at the front desk was charming, and made a great dinner suggestion: Salata, right across the parking lot! Our room was immaculate, with all the amenities we appreciate. The outdoor pool was refreshing and clean, and the hot tub was excellent. Even the stairwells were clean! (Our dogs are terrified of elevators, so we use the stairs.) The breakfast bar was very nice. I would truly appreciate the addition of a gluten free cereal, though. How about it, La Quinta?MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>As we travel around the country, La Quinta is our hotel of choice because we travel with two small, well-behaved dogs, and they are always welcome there. This La Quinta is exceptionally lovely. The man who greeted us at the front desk was charming, and made a great dinner suggestion: Salata, right across the parking lot! Our room was immaculate, with all the amenities we appreciate. The outdoor pool was refreshing and clean, and the hot tub was excellent. Even the stairwells were clean! (Our dogs are terrified of elevators, so we use the stairs.) The breakfast bar was very nice. I would truly appreciate the addition of a gluten free cereal, though. How about it, La Quinta?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r317240486-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317240486</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Very nice! Best LaQuinta</t>
+  </si>
+  <si>
+    <t>This is the best LaQuinta that I have every stayed at and the establishment was well kept, very clean and well managed. Very friendly staff! I was so surprised that this was an affordable hotel. Great job!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded October 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2015</t>
+  </si>
+  <si>
+    <t>This is the best LaQuinta that I have every stayed at and the establishment was well kept, very clean and well managed. Very friendly staff! I was so surprised that this was an affordable hotel. Great job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r306183133-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306183133</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Newly Renovated!!</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Everything was freshly painted. Beds were comfortable and bathrooms clean. Hot Breakfast was very good and plentiful. Close to many restaurants and shopping. Fresh brewed coffee available 24 hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Everything was freshly painted. Beds were comfortable and bathrooms clean. Hot Breakfast was very good and plentiful. Close to many restaurants and shopping. Fresh brewed coffee available 24 hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r281054335-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281054335</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel - Very Clean - Very Secure</t>
+  </si>
+  <si>
+    <t>I've traveled for business a lot over the past few years and chose La Quinta as my go-to for comfort and value.  But this is the best La Quinta overall in which I've stayed.  This particular Hotel is relatively new but also immaculately kept.  The location is generally away from any undesirable businesses and has a secure fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2015</t>
+  </si>
+  <si>
+    <t>I've traveled for business a lot over the past few years and chose La Quinta as my go-to for comfort and value.  But this is the best La Quinta overall in which I've stayed.  This particular Hotel is relatively new but also immaculately kept.  The location is generally away from any undesirable businesses and has a secure fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r271843544-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271843544</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel by La Quinta</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights for business and was very pleasantly surprised. The hotel is &lt;2 years old and is very clean and well maintained.Staff are very courteous, rooms are huge and spotless...free breakfast was the icing on the cake.The are is very well placed for business in the NW of Houston, it is surrounded by lots off fast food places for a quick bite to eat and is situated adjacent to the Sam Houston beltway.At $150/night this hotel offers great value for money and I will definitely return when on business in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights for business and was very pleasantly surprised. The hotel is &lt;2 years old and is very clean and well maintained.Staff are very courteous, rooms are huge and spotless...free breakfast was the icing on the cake.The are is very well placed for business in the NW of Houston, it is surrounded by lots off fast food places for a quick bite to eat and is situated adjacent to the Sam Houston beltway.At $150/night this hotel offers great value for money and I will definitely return when on business in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r259204843-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259204843</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Business Stay</t>
+  </si>
+  <si>
+    <t>I would rate this as a good hotel.  Typically hotels have very humid air and hard water.  This hotel was the opposite. The room was spacious and clean, the water was soft and the room air was nice.  The breakfast didn't have a very large variety but it was adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>I would rate this as a good hotel.  Typically hotels have very humid air and hard water.  This hotel was the opposite. The room was spacious and clean, the water was soft and the room air was nice.  The breakfast didn't have a very large variety but it was adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r234735430-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234735430</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Decent Hotel, Strange Location</t>
+  </si>
+  <si>
+    <t>Here are the pros: Comfortable, clean, nice staff, Internet works great. Cons: Room and carpet are worn (rooms need updating), and the location is strange -- the hotel is in the middle of a shopping center with no signage indicating the hotel entrance. the hallways smell like cigarettes.  Also, the adjacent freeways are a mess with construction, which makes getting to and from the hotel confusing and problematic. So, now for the most important question: Would we stay here again? I'm tempted to say "no," but after reading the reviews for other hotels in the area that sound so much worse, I guess I'll have to say "maybe."</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r234480247-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234480247</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Exceed your expectations</t>
+  </si>
+  <si>
+    <t>As we all know, cleanlines, quality and price is important when traveling with family.  Some LaQuinta locations are a "roll of a dice".  - This location has been open for 13 months as of 10/13/14 and still has the "New Building" feeling and service. Definately a well worth resting place for the family and Business. Oh! a wonderfull TCBY &amp; Mrs Field Store recently opened across the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r230979713-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230979713</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Houston Visit</t>
+  </si>
+  <si>
+    <t>Very nice facility.  New building.  Staff was very pleasant, breakfast was good, hot, and plenty of selections.  Good location for my travel to and from work.  Restaurants were close by so I could walk to them.  Other stores close by for a short drive (Grocery store, Drug store, etc.).  Plenty of room for parking, easy access to major roads, easy in-and-out of hotel parking lot.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r210553558-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210553558</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Love the Smell of a New clean Hotel</t>
+  </si>
+  <si>
+    <t>The Hotel is brand new.  I love the smell of a clean, new, sharp looking Hotel.  The price is right, the beds are comfortable, the rooms are sparkling clean, the service is professional, the pool is crisp, and the exercise room is spotless. Close to the highway for easy on and off.  Close to many restaurants.  If you are looking for a restful Hotel, with good amenities at a great price, this is a good choice.  The only concern is that the complimentary breakfast is slightly above average.  As for me, I planning to return.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r200984434-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200984434</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>A New Property and a Nice Place to Stay.</t>
+  </si>
+  <si>
+    <t>As a former resident of the Greater Houston Area, I still have family and friends in various locations around Houston.  I needed a hotel that was convenient to Downtown Houston, Magnolia (a small suburban town about 45 miles NW of Houston) and the Willowbrook area (Hwy 249 &amp; Beltway 8). This hotel is nicely situated for all the locations I needed to visit on this trip.  The property is new and in very good condition.  Our room was clean, the bed was comfortable, and everything in the room worked.  There are lots of power outlets in the walls and lamps and that make plugging in chargers a simple task.  The only reason I didn't give the hotel an Excellent rating is because they serve Starbucks coffee on the breakfast buffet. I know many people will think us crazy, but my wife an I do NOT care for Tarbucks, er uh, Starbucks.  Of course this is a personal preference and so could in fact be a positive thing for many people.I definitely would recommend this hotel and in fact, may be staying there again in next month (Starbucks coffee notwithstanding).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>As a former resident of the Greater Houston Area, I still have family and friends in various locations around Houston.  I needed a hotel that was convenient to Downtown Houston, Magnolia (a small suburban town about 45 miles NW of Houston) and the Willowbrook area (Hwy 249 &amp; Beltway 8). This hotel is nicely situated for all the locations I needed to visit on this trip.  The property is new and in very good condition.  Our room was clean, the bed was comfortable, and everything in the room worked.  There are lots of power outlets in the walls and lamps and that make plugging in chargers a simple task.  The only reason I didn't give the hotel an Excellent rating is because they serve Starbucks coffee on the breakfast buffet. I know many people will think us crazy, but my wife an I do NOT care for Tarbucks, er uh, Starbucks.  Of course this is a personal preference and so could in fact be a positive thing for many people.I definitely would recommend this hotel and in fact, may be staying there again in next month (Starbucks coffee notwithstanding).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r204759607-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204759607</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>I stay in hotels every week on business.  This hotel is one of my favorites.  The management and staff have made my stays very comfortable and look forward to return.  From the exercise room to the beds and breakfast, I like staying here.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r192742492-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192742492</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r188819079-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188819079</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r187835967-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187835967</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Even the Coffee</t>
+  </si>
+  <si>
+    <t>My wife and I usually stay at La Quinta Inns whenever we can for a variety of reasons. However, for this trip, I actually tried to get a room at a nearby hotel only because our son was staying there while in Houston on business. No rooms were available there, nor in a number of other hotels in the area. I then found this La Quinta through my telephone app and learned that rooms were available. We questioned the reason why rooms were available here but not nearby. "What is wrong with this hotel?" we asked ourselves. We reserved a room about 30 minutes before our arrival using the phone app. Upon our arrival we understood with great pleasure why rooms were available. This hotel is new, spotless, the staff very friendly, and not many people have discovered it yet...but they will! I wrote a review for a La Quinta in Orange, TX that was very similar...except...they had terrible coffee! THIS La Quinta has great coffee and offers fresh ground-fresh brewed Starbucks in the lobby!! I encourage travelers to check this location out and I believe you will be pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I usually stay at La Quinta Inns whenever we can for a variety of reasons. However, for this trip, I actually tried to get a room at a nearby hotel only because our son was staying there while in Houston on business. No rooms were available there, nor in a number of other hotels in the area. I then found this La Quinta through my telephone app and learned that rooms were available. We questioned the reason why rooms were available here but not nearby. "What is wrong with this hotel?" we asked ourselves. We reserved a room about 30 minutes before our arrival using the phone app. Upon our arrival we understood with great pleasure why rooms were available. This hotel is new, spotless, the staff very friendly, and not many people have discovered it yet...but they will! I wrote a review for a La Quinta in Orange, TX that was very similar...except...they had terrible coffee! THIS La Quinta has great coffee and offers fresh ground-fresh brewed Starbucks in the lobby!! I encourage travelers to check this location out and I believe you will be pleased.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1471,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1503,3080 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>233</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>265</v>
+      </c>
+      <c r="X33" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>274</v>
+      </c>
+      <c r="X34" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>283</v>
+      </c>
+      <c r="X35" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>292</v>
+      </c>
+      <c r="X36" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>300</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>311</v>
+      </c>
+      <c r="J39" t="s">
+        <v>312</v>
+      </c>
+      <c r="K39" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" t="s">
+        <v>318</v>
+      </c>
+      <c r="L40" t="s">
+        <v>319</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
+        <v>337</v>
+      </c>
+      <c r="L43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" t="s">
+        <v>346</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>347</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>349</v>
+      </c>
+      <c r="J46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_454.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_454.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="574">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,42 +150,135 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r612440590-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>4551372</t>
+  </si>
+  <si>
+    <t>612440590</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Houston trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel, convenient right off tollway, easy to find. Good breakfast selection. Friendly staff. AC worked great in hot Texas summer, very important! Clean bathroom. WiFi was good and worked so I could study. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r569471699-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569471699</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Great convenient hotel</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean facility, excellent breakfast. The location was perfect. Close to my meeting and had several restaurants in the area. Easy to access and find. Comfortable beds and pillows. Highly recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean facility, excellent breakfast. The location was perfect. Close to my meeting and had several restaurants in the area. Easy to access and find. Comfortable beds and pillows. Highly recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r611502323-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>611502323</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Top notch place to stay</t>
+  </si>
+  <si>
+    <t>La Quinta Inn &amp; Suites at this facility was top notch.  Rooms were modern and very clean.  Good selection for breakfast.  This hotel was located within a half mile of my company's office.  There were a few good eating places close to the hotel in case you don't want to get out in Houston traffic.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r610044744-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>610044744</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Stay at Cozy Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really enjoyed stay over here - I would call no-nonsense stays. I had been there for 2 times in past few months and found the services exactly as expected. Although I would have loved to have few more things added to single occupancy rooms like - bath tub but overall the room quality is good.there are lot of options nearby to eat out and the breakfast La quinta serves is healthy. Surprised to see those guys keep that ready before 5:30 AM in mornings. Front desk is always friendly and ready help. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r601331248-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601331248</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome Location </t>
+  </si>
+  <si>
+    <t>Traveling as a nurse ; I have stayed at many LaQuinta Inn’s by choice because of the rewards program is one of the BEST!   This location I have enjoyed simply because the rooms are clean and the General Manager; Sabin Shakya and his staff is THE BEST!! A success story that I must share with you is that I forgot my expensive facial products in the bathroom after checked out! (Murad) returning in a panic, I was pleasantly surprised to find out the housekeeper and securely stored it away on her cart!  I gave her $20.00 for that !  She could have easily thrown it away or denied seeing it ... ( I went 2 days later! )If you’re a salad lover like I am, you will be very happy to see a Salata sits in the front door along with other restaurants and nail shops.  You’re car is always safely parked because security is on all night long!  I mean it’s right have the beltway 8.... but very safe location. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded August 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2018</t>
+  </si>
+  <si>
+    <t>Traveling as a nurse ; I have stayed at many LaQuinta Inn’s by choice because of the rewards program is one of the BEST!   This location I have enjoyed simply because the rooms are clean and the General Manager; Sabin Shakya and his staff is THE BEST!! A success story that I must share with you is that I forgot my expensive facial products in the bathroom after checked out! (Murad) returning in a panic, I was pleasantly surprised to find out the housekeeper and securely stored it away on her cart!  I gave her $20.00 for that !  She could have easily thrown it away or denied seeing it ... ( I went 2 days later! )If you’re a salad lover like I am, you will be very happy to see a Salata sits in the front door along with other restaurants and nail shops.  You’re car is always safely parked because security is on all night long!  I mean it’s right have the beltway 8.... but very safe location. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r601340521-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>4551372</t>
-  </si>
-  <si>
     <t>601340521</t>
   </si>
   <si>
-    <t>07/30/2018</t>
-  </si>
-  <si>
     <t>Okay, but better in Houston Area</t>
   </si>
   <si>
     <t>The hotel was just that, a hotel. No extra space in the room, just 2 beds and the bath. No biscuits and gravy for breakfast.  Nothing special.  But nothing wrong either, clean, pool, gym, very good location to beltway 8.  Average, like my rating.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
     <t>The hotel was just that, a hotel. No extra space in the room, just 2 beds and the bath. No biscuits and gravy for breakfast.  Nothing special.  But nothing wrong either, clean, pool, gym, very good location to beltway 8.  Average, like my rating.More</t>
   </si>
   <si>
@@ -204,10 +297,7 @@
     <t>Perfect stay every time. The only place I stay in the Houston area now.I have tried others but this was my best stay.Employees are helpful and friendly.Always positive.Keep up the good work.Thank you MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded 1 week ago</t>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded August 2, 2018</t>
   </si>
   <si>
     <t>Perfect stay every time. The only place I stay in the Houston area now.I have tried others but this was my best stay.Employees are helpful and friendly.Always positive.Keep up the good work.Thank you More</t>
@@ -234,6 +324,51 @@
     <t>We just needed a night of rest. Having a 10yr old a 2 yr old and a 2month old takes its toll. We live just across the beltway so we had grandma babysit just so that we could get a lil shut eye. The place was perfect!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r593119743-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593119743</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Good stay- 2 nights</t>
+  </si>
+  <si>
+    <t>Hotel had a nice location, good breakfast options and multiple coffee options. Nice clean room, really nice bathroom and shower. Did not like the small pillows or cheap toilet paper and Kleenex but I would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r580305696-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580305696</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Great hotel stay.</t>
+  </si>
+  <si>
+    <t>Was in town for a continuing education seminar at the hotel. A special room rate was offered and was VERY reasonable. The entire process was first class. Check in was easy, Room was clean. Breakfast was superb. Couldn't have asked for a better experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Was in town for a continuing education seminar at the hotel. A special room rate was offered and was VERY reasonable. The entire process was first class. Check in was easy, Room was clean. Breakfast was superb. Couldn't have asked for a better experience.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r574274329-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -252,9 +387,6 @@
     <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 7, 2018</t>
   </si>
   <si>
-    <t>Responded May 7, 2018</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
@@ -273,9 +405,6 @@
     <t>The best LaQuinta we have stayed at in over 6 years. Awesome coffee machine, not one of those instant things. Smells clean, rooms were quite and clean. While many of our LaQuinta stays have been terrible this one was awesome.MoreShow less</t>
   </si>
   <si>
-    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 7, 2018</t>
-  </si>
-  <si>
     <t>The best LaQuinta we have stayed at in over 6 years. Awesome coffee machine, not one of those instant things. Smells clean, rooms were quite and clean. While many of our LaQuinta stays have been terrible this one was awesome.More</t>
   </si>
   <si>
@@ -306,6 +435,51 @@
     <t>I am going to Houston weekly and have been staying here for the last past month. New hotel, convenient location to shopping, gym. Staff is very attentive, rooms are ready when I get to the hotel. Everyone is willing to help.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r533021714-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533021714</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Great place and value</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel that offers free breakfast with a large variety of items and great coffee machine!!!  Loved my stay.  The bed was very comfortable and I liked the decor of the hotel.  Check in and check out were so easy!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel that offers free breakfast with a large variety of items and great coffee machine!!!  Loved my stay.  The bed was very comfortable and I liked the decor of the hotel.  Check in and check out were so easy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r531162833-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531162833</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Centrally located, rooms clean and located to other business and restaurants . Clean room, great beds, nice continental breakfast. Friendly staff. Enjoyed my stay at this location. Will stay again when hurricanes are not present MoreShow less</t>
+  </si>
+  <si>
+    <t>Centrally located, rooms clean and located to other business and restaurants . Clean room, great beds, nice continental breakfast. Friendly staff. Enjoyed my stay at this location. Will stay again when hurricanes are not present More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r527127248-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -318,12 +492,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded October 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 17, 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r524574594-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -369,6 +537,51 @@
     <t>I have stayed at LaQuinta exclusively because of their pet policy, and have NEVER had a problem at any of them.  I have my own pets and also do rescues, and the fact that they do not charge anything for my furry family members like other hotels do, is the reason I will continue to stay at LaQuintas, even if I don't have my pets with me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r506478225-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506478225</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Everything and everyone was nice and professional.  Breakfast was fresh,  with and excellent variety of different foods. Not to mention the wonderful wafflesand hot surup.  It was very kid friendly.  Unfortunately our stay was short so we're unable to try out the pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Everything and everyone was nice and professional.  Breakfast was fresh,  with and excellent variety of different foods. Not to mention the wonderful wafflesand hot surup.  It was very kid friendly.  Unfortunately our stay was short so we're unable to try out the pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r506316634-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506316634</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Fresh and clean</t>
+  </si>
+  <si>
+    <t>Our stay eas wonderful. The staff was friendly. The room was very clean. The layout of the hotel was convenient. Restaurants are located nearby. Would recommend this hotel to anyone. Thank you for making our stay great. MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay eas wonderful. The staff was friendly. The room was very clean. The layout of the hotel was convenient. Restaurants are located nearby. Would recommend this hotel to anyone. Thank you for making our stay great. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r506047915-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -384,9 +597,6 @@
     <t>I've stayed here many times and will again. It's convenient, clean and the employees are good to us. There was a problem with accessing the internet for the first 24 hrs but the issue was resolved and there were silver particles in the ice coming out of the ice machine. We've never had an issue with the ice before.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded July 28, 2017</t>
   </si>
   <si>
@@ -444,6 +654,60 @@
     <t>Great location for NW Houston, very convenient.  Friendly staff, clean hotel, everything you need, priced just right too! The staff paid attention to my online booking request and provided the room I had asked for.  Very happy customer!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r497942520-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497942520</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Exceptional stay!</t>
+  </si>
+  <si>
+    <t>Excellent newer La Quinta hotel. Very Impressed with the lobby.....breakfast (Starbucks machine)....location...and price, not to mention the room! Parking was easy. We'll definitely stay here again!! Highly recommended...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Excellent newer La Quinta hotel. Very Impressed with the lobby.....breakfast (Starbucks machine)....location...and price, not to mention the room! Parking was easy. We'll definitely stay here again!! Highly recommended...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r488340336-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488340336</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>consistent stays for business</t>
+  </si>
+  <si>
+    <t>Great and consistent hotel. Always stay here while doing business in north Houston.  Front desk is always polite and eager to help.  And being pet friendly is an extra bonus. More hotels should follow suit and consider pets as family.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Rinesh P, Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Great and consistent hotel. Always stay here while doing business in north Houston.  Front desk is always polite and eager to help.  And being pet friendly is an extra bonus. More hotels should follow suit and consider pets as family.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r476976067-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -507,6 +771,42 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r463580927-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463580927</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfortable facility. Overcharged my Credit Card for the room</t>
+  </si>
+  <si>
+    <t>The room and facility were very clean and the beds were comfortable. I would return here. The only problem I had was the day after check out I realized they over charged my credit card by $195.50 for a $109 room (about $305 total charged). When I paid upon checking in (Saturday night), they assured me they were only charging for the one room (my parents stayed in a separate room, same reservation). Called Monday and the manager said they accidentally charged us for both rooms on the reservation . No explanation for the third charge. The extra charges were credited back within a few days and the issue resolved. However, it would have been nice if they had charged correctly in the first place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The room and facility were very clean and the beds were comfortable. I would return here. The only problem I had was the day after check out I realized they over charged my credit card by $195.50 for a $109 room (about $305 total charged). When I paid upon checking in (Saturday night), they assured me they were only charging for the one room (my parents stayed in a separate room, same reservation). Called Monday and the manager said they accidentally charged us for both rooms on the reservation . No explanation for the third charge. The extra charges were credited back within a few days and the issue resolved. However, it would have been nice if they had charged correctly in the first place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r464005113-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464005113</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I needed a place to stay overnight, and chose this La Quinta. I was not disappointed. It is in a good location, with eating and shopping stores nearby. It is a relatively new Hotel, and the staff is friendly and helpful. I would stay here again if I need to stay in this area again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r458002795-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -522,9 +822,6 @@
     <t>Seems like a newer La Quinta. It's clean and convenient. Never problems with staff or cleanliness. Pool is nice and the breakfast is average. Parking is not an issue and it is located to numerous fast food restaurants.</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r449786782-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -561,6 +858,52 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r431761529-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431761529</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>WiFi was slow as is at most hotels. Would be nice to have some whole grain bagels or breads and soy or nut milk for oatmeal &amp; dry cereal.  Staff very friendly, rooms were clean!Perfect location, across the highway from our event.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r429153047-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429153047</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>"Fantabulous!"</t>
+  </si>
+  <si>
+    <t>I almost hate to post this review so I can keep this diamond to myself. But my good fortune can be yours!
+My spouse and I traveled to Houston for a dog show competition. A friend had recommended this location and, after checking out the reviews, I booked our stay. We were traveling with two dogs. 
+Not only were we welcomed with open arms, but the check in process was quick and easy. We requested a room away from the traffic flow of hotel patrons so that our dogs would be as quiet as possible even in the midst of doors shutting, elevators dinging, other dogs barking. That request was accommodated perfectly and not a single bark came out of either dog during the entire stay. 
+If you're also traveling with dogs, you should know that the grassy areas for pottying your dogs are easily accessible. (Just do your part and pick up as a courtesy to everyone. :))
+The rooms are very well laid out, with efficient air conditioning during hot weather. I love the fact that this hotel's rooms are well lit. You can actually see your hand in front of your face when you flip on the lights even at night. The shower in the bathroom has a neat, appealing sliding door that really keeps the water inside the shower. 
+Ambient noise was at a minimum and we actually saw the front desk staff going to check/...I almost hate to post this review so I can keep this diamond to myself. But my good fortune can be yours!My spouse and I traveled to Houston for a dog show competition. A friend had recommended this location and, after checking out the reviews, I booked our stay. We were traveling with two dogs. Not only were we welcomed with open arms, but the check in process was quick and easy. We requested a room away from the traffic flow of hotel patrons so that our dogs would be as quiet as possible even in the midst of doors shutting, elevators dinging, other dogs barking. That request was accommodated perfectly and not a single bark came out of either dog during the entire stay. If you're also traveling with dogs, you should know that the grassy areas for pottying your dogs are easily accessible. (Just do your part and pick up as a courtesy to everyone. :))The rooms are very well laid out, with efficient air conditioning during hot weather. I love the fact that this hotel's rooms are well lit. You can actually see your hand in front of your face when you flip on the lights even at night. The shower in the bathroom has a neat, appealing sliding door that really keeps the water inside the shower. Ambient noise was at a minimum and we actually saw the front desk staff going to check/ call on a hotel guest whose dog had been left unattended in the room and was barking.  Even the neighborhood around this hotel is well maintained with lots of choices for dining or shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>I almost hate to post this review so I can keep this diamond to myself. But my good fortune can be yours!
+My spouse and I traveled to Houston for a dog show competition. A friend had recommended this location and, after checking out the reviews, I booked our stay. We were traveling with two dogs. 
+Not only were we welcomed with open arms, but the check in process was quick and easy. We requested a room away from the traffic flow of hotel patrons so that our dogs would be as quiet as possible even in the midst of doors shutting, elevators dinging, other dogs barking. That request was accommodated perfectly and not a single bark came out of either dog during the entire stay. 
+If you're also traveling with dogs, you should know that the grassy areas for pottying your dogs are easily accessible. (Just do your part and pick up as a courtesy to everyone. :))
+The rooms are very well laid out, with efficient air conditioning during hot weather. I love the fact that this hotel's rooms are well lit. You can actually see your hand in front of your face when you flip on the lights even at night. The shower in the bathroom has a neat, appealing sliding door that really keeps the water inside the shower. 
+Ambient noise was at a minimum and we actually saw the front desk staff going to check/...I almost hate to post this review so I can keep this diamond to myself. But my good fortune can be yours!My spouse and I traveled to Houston for a dog show competition. A friend had recommended this location and, after checking out the reviews, I booked our stay. We were traveling with two dogs. Not only were we welcomed with open arms, but the check in process was quick and easy. We requested a room away from the traffic flow of hotel patrons so that our dogs would be as quiet as possible even in the midst of doors shutting, elevators dinging, other dogs barking. That request was accommodated perfectly and not a single bark came out of either dog during the entire stay. If you're also traveling with dogs, you should know that the grassy areas for pottying your dogs are easily accessible. (Just do your part and pick up as a courtesy to everyone. :))The rooms are very well laid out, with efficient air conditioning during hot weather. I love the fact that this hotel's rooms are well lit. You can actually see your hand in front of your face when you flip on the lights even at night. The shower in the bathroom has a neat, appealing sliding door that really keeps the water inside the shower. Ambient noise was at a minimum and we actually saw the front desk staff going to check/ call on a hotel guest whose dog had been left unattended in the room and was barking.  Even the neighborhood around this hotel is well maintained with lots of choices for dining or shopping.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r419638506-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -618,6 +961,39 @@
     <t>I am staying here for 1 month on business. Switched to this la quinta after a horrible night at the energy corridor location....so far it has been NOTHING LESS  than absolutely pleasant. The location is great, its not in the middle of busy city area, seems more outskirts but still surrounded by enough to not have to drive far for food/shopping. Check in was great- she was sure to make sure my rates for the month were correct as billed to my emplyers admin. The hotel itself Is nice and updated, very sleek and modern. BEAUTIFUL ROOMS, very spacious, I have a suite on 2nd floor w/everything I need. Used the gym last night downstairs and they had all the same things I use at 24 hour fitness , so it was EXTREMELY convenient (and much more peaceful). On my way out to work this morning their breakfast was DELICOUS ! no complaints at all, cannot wait to try the pool/hot tubMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r388029113-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388029113</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Best La Quinta Ever</t>
+  </si>
+  <si>
+    <t>I've stayed at several La Quintas and this is the nicest ever.  It's brand new, very clean, staff were professional, low key and helpful.  I didn't have breakfast so I can't comment on that but everything else was superb...even the bed which was just right.  The hot tub was very relaxing, towels right as you step inside from pool area, entrance very close to elevator.  Also while accessible to tollway it was recessed from any road noise.  Very pleasant place to stay in Houston.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r382661285-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382661285</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>OUTSTANDING</t>
+  </si>
+  <si>
+    <t>The management and staff were helpful and courteous on every encounter. The accommodations were superb.  The mattress were GREAT! Extremely clean and well decorated. The Wi-Fi worked great as did everything else. The price was very, very good and I couldn't have been happier.  I have paid way more for less.  Happy Consumer.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r381296866-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -633,9 +1009,6 @@
     <t>Friendly staff and very Helpful.  Clean inside and outside.  We got a great night's sleep.  Bed was outstanding.  Shower was safe well designed.  Everything worked as it should.  The place to stay in Houston.   Staff had everything needed for a very fast check in.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r378505129-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -669,6 +1042,48 @@
     <t>I have stayed at many hotels and this hotel and all of their staff go above and beyond to ensure all of their customers are satisfied with their stay. The hotel is always clean and well kept and all of the staff is very friendly and caring.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r374636995-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374636995</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Horrible Service</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, and it is clean.  However, the lies, rudeness, and attitude from the front desk staff is something that I can not overlook.  I stay in La Quinta's all over the country.  There are only a couple nicer ones, but this is the worst service I have ever encountered in the La Quinta brand.  I will never stay in this hotel again, and I would have walked right out if I didn't need to stay here for a business conference in the area.  I called at 12:30pm to ask what time the room would be ready, and I was told it was already ready.  I said great, is there a complimentary king suite upgrade available (I have stayed so much I am an elite member, so I always ask.)?  She said no there are no king suites available.  I looked on the website, and there were a number available.  Why lie? I arrived for check-in about 1:45pm. I walked in in heels that made a little noise, and the doors made noise.  I could here someone moving around in the office to the side of the desk.  I said excuse me after a couple minutes, and no one came out.  I made noise getting my cards out of my purse and still no one appeared.  I knew she could hear me, because every time I said something or made a little noise she stopped moving...This is a very nice hotel, and it is clean.  However, the lies, rudeness, and attitude from the front desk staff is something that I can not overlook.  I stay in La Quinta's all over the country.  There are only a couple nicer ones, but this is the worst service I have ever encountered in the La Quinta brand.  I will never stay in this hotel again, and I would have walked right out if I didn't need to stay here for a business conference in the area.  I called at 12:30pm to ask what time the room would be ready, and I was told it was already ready.  I said great, is there a complimentary king suite upgrade available (I have stayed so much I am an elite member, so I always ask.)?  She said no there are no king suites available.  I looked on the website, and there were a number available.  Why lie? I arrived for check-in about 1:45pm. I walked in in heels that made a little noise, and the doors made noise.  I could here someone moving around in the office to the side of the desk.  I said excuse me after a couple minutes, and no one came out.  I made noise getting my cards out of my purse and still no one appeared.  I knew she could hear me, because every time I said something or made a little noise she stopped moving things around and got quiet for a couple minutes.  I stood at the front desk waiting for someone to acknowledge me for almost 10 minutes. When she finally came out, she looked at me like I was bothering her by being there to check in.  There was no friendly greeting or smile. She only gave me one key for 2 people, and when I asked for a second one she seemed frustrated with me. When she finally told me my room number, it was on the 3rd floor.  I asked to please move to a lower floor, and she said we don't have any other rooms available.  Really....I just was on the website 30 mins ago and there were multiple rooms available for tonight. She didn't say which end of the building my room was on...where it would be best to park to enter closest to my room. This info would have been much appreciated as it was pouring down rain. I will be calling the La Quinta Rewards hotline to let them know how poorly the service at this hotel reflects on their brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, and it is clean.  However, the lies, rudeness, and attitude from the front desk staff is something that I can not overlook.  I stay in La Quinta's all over the country.  There are only a couple nicer ones, but this is the worst service I have ever encountered in the La Quinta brand.  I will never stay in this hotel again, and I would have walked right out if I didn't need to stay here for a business conference in the area.  I called at 12:30pm to ask what time the room would be ready, and I was told it was already ready.  I said great, is there a complimentary king suite upgrade available (I have stayed so much I am an elite member, so I always ask.)?  She said no there are no king suites available.  I looked on the website, and there were a number available.  Why lie? I arrived for check-in about 1:45pm. I walked in in heels that made a little noise, and the doors made noise.  I could here someone moving around in the office to the side of the desk.  I said excuse me after a couple minutes, and no one came out.  I made noise getting my cards out of my purse and still no one appeared.  I knew she could hear me, because every time I said something or made a little noise she stopped moving...This is a very nice hotel, and it is clean.  However, the lies, rudeness, and attitude from the front desk staff is something that I can not overlook.  I stay in La Quinta's all over the country.  There are only a couple nicer ones, but this is the worst service I have ever encountered in the La Quinta brand.  I will never stay in this hotel again, and I would have walked right out if I didn't need to stay here for a business conference in the area.  I called at 12:30pm to ask what time the room would be ready, and I was told it was already ready.  I said great, is there a complimentary king suite upgrade available (I have stayed so much I am an elite member, so I always ask.)?  She said no there are no king suites available.  I looked on the website, and there were a number available.  Why lie? I arrived for check-in about 1:45pm. I walked in in heels that made a little noise, and the doors made noise.  I could here someone moving around in the office to the side of the desk.  I said excuse me after a couple minutes, and no one came out.  I made noise getting my cards out of my purse and still no one appeared.  I knew she could hear me, because every time I said something or made a little noise she stopped moving things around and got quiet for a couple minutes.  I stood at the front desk waiting for someone to acknowledge me for almost 10 minutes. When she finally came out, she looked at me like I was bothering her by being there to check in.  There was no friendly greeting or smile. She only gave me one key for 2 people, and when I asked for a second one she seemed frustrated with me. When she finally told me my room number, it was on the 3rd floor.  I asked to please move to a lower floor, and she said we don't have any other rooms available.  Really....I just was on the website 30 mins ago and there were multiple rooms available for tonight. She didn't say which end of the building my room was on...where it would be best to park to enter closest to my room. This info would have been much appreciated as it was pouring down rain. I will be calling the La Quinta Rewards hotline to let them know how poorly the service at this hotel reflects on their brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r370582685-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370582685</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Sparkling place with attention to detail</t>
+  </si>
+  <si>
+    <t>I stay at numerous LaQuintas in many states. This is by far the best one I have ever stayed in. It is so clean it is difficult to believe it is not brand new. Attention to detail is unbelievable including 'extras' such as shoe wipes, hotel pool towel cubby holes and wet towel disposal; lots of channels not found on most LQ tvs; the breakfast even has fresh cubed fruits like cantaloupe watermelon and the like. Very friendly staff. The rooms have all glass shower/tub enclosures and the light fixtures are well-appointed with electric outlets for recharging electronic devices, in addition to having convenient on-off switches for lighting. I can't say enough good things about this LaQuinta. I go out of my way to stay there when in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at numerous LaQuintas in many states. This is by far the best one I have ever stayed in. It is so clean it is difficult to believe it is not brand new. Attention to detail is unbelievable including 'extras' such as shoe wipes, hotel pool towel cubby holes and wet towel disposal; lots of channels not found on most LQ tvs; the breakfast even has fresh cubed fruits like cantaloupe watermelon and the like. Very friendly staff. The rooms have all glass shower/tub enclosures and the light fixtures are well-appointed with electric outlets for recharging electronic devices, in addition to having convenient on-off switches for lighting. I can't say enough good things about this LaQuinta. I go out of my way to stay there when in the Houston area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r355930665-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -720,6 +1135,42 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r339852819-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339852819</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly Nice</t>
+  </si>
+  <si>
+    <t>The room was very nice. Sometimes La Quinta can feel like an older room / hotel with some fresh paint on it. This isn't that way. It feels new, and well appointed. The bed was as comfortable as the one's in the Ritz that I've slept on.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r336484999-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336484999</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL!</t>
+  </si>
+  <si>
+    <t>First time at this hotel - was very impressed by the cleanliness of the entire property and the friendliness of the staff.  All staff members we encountered were extremely helpful.  Close to everything in the NW Houston area that we wanted.  Would definitely stay here on our next trip to the area!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r333296106-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -735,9 +1186,6 @@
     <t>Very nice new La Quinta.  Great location off the beltway.  Many food locations easy walking distance.  Hands down best breakfast bar ever in a La Quinta.  Even had a breakfast pizza during my stay, and had Starbucks coffee.Had small issue with dirty sheets at my arrival but this was quickly  remedied.  Second, no wifi at all on 2d or 3d floor from 10 pm until our check out.  They said they are working on this. Oh, and don't stay here for the views.  We viewed a drainage ditch. Still, I would stay again.  Very nice hotel..even had  fountain in an outdoor sitting area.  Very trendy decor, new, fresh, and  clean.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>Very nice new La Quinta.  Great location off the beltway.  Many food locations easy walking distance.  Hands down best breakfast bar ever in a La Quinta.  Even had a breakfast pizza during my stay, and had Starbucks coffee.Had small issue with dirty sheets at my arrival but this was quickly  remedied.  Second, no wifi at all on 2d or 3d floor from 10 pm until our check out.  They said they are working on this. Oh, and don't stay here for the views.  We viewed a drainage ditch. Still, I would stay again.  Very nice hotel..even had  fountain in an outdoor sitting area.  Very trendy decor, new, fresh, and  clean.More</t>
   </si>
   <si>
@@ -774,6 +1222,36 @@
     <t>Professional Development is needed in the area of arrival and departure greeting of guest. Had the gentleman on night duty greeted us upon arrival and when departing the birthday choice of a hotel would have been 5 Star. The young student may have had some negative family concerns going on this time and the last time I chose this NW Beltway8 West Road location.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r327541433-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327541433</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Clean Room and Friendly Staff</t>
+  </si>
+  <si>
+    <t>This location exceeded my expectations! Room was very clean and staff was very friendly. I was checked in in less than 5 minutes and early at that. Breakfast was slightly better than your typical continental breakfast. Will definitely stay again! Dog Friendly too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r327949469-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327949469</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>LaQuinta on Beltway 8</t>
+  </si>
+  <si>
+    <t>I have been traveling back to Houston many times this year, and have stayed her at the LAQUinta on 8 many of the trips.  The hotel staff was friendly and helpful with directions or guidance. Always made me feel welcome when I returned to the hotel after a long day.  The hotel is also in walking distance to many food options including TCBY, Smoothie King, PotBellys, Chick-fil-a, Chipotle, Ensalada and Whataburger. and a Walgreens is jsut across the street.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r325151323-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -849,6 +1327,42 @@
     <t>Very nice hotel. Everything was freshly painted. Beds were comfortable and bathrooms clean. Hot Breakfast was very good and plentiful. Close to many restaurants and shopping. Fresh brewed coffee available 24 hours.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r301715951-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301715951</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>corporate account</t>
+  </si>
+  <si>
+    <t>I use this account as a Business account, I have several crews that stay at many La Quinta over the course of the year.  I have all of my needs meet at each and every location that we have had to stay at over the region :)MoreShow less</t>
+  </si>
+  <si>
+    <t>I use this account as a Business account, I have several crews that stay at many La Quinta over the course of the year.  I have all of my needs meet at each and every location that we have had to stay at over the region :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r301715388-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301715388</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent convenient stay</t>
+  </si>
+  <si>
+    <t>This hotel is convenient, very clean, with excellent rooms and they receive dogs. My husband and I had a great experience. Breakfast was also great and convenient hours. Would come back when visiting Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is convenient, very clean, with excellent rooms and they receive dogs. My husband and I had a great experience. Breakfast was also great and convenient hours. Would come back when visiting Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r281054335-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1444,51 @@
     <t>I would rate this as a good hotel.  Typically hotels have very humid air and hard water.  This hotel was the opposite. The room was spacious and clean, the water was soft and the room air was nice.  The breakfast didn't have a very large variety but it was adequate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r254807524-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254807524</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Relaxing Stay</t>
+  </si>
+  <si>
+    <t>Very clean and quiet hotel.  We have not stayed at La Quinta's for quite some time.  We recently got a new puppy and needed a pet friendly hotel.  This was an excellent choice!!!  Everything about the hotel was new &amp; modern.  All the common areas where very comfortable and the rooms were quite nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Very clean and quiet hotel.  We have not stayed at La Quinta's for quite some time.  We recently got a new puppy and needed a pet friendly hotel.  This was an excellent choice!!!  Everything about the hotel was new &amp; modern.  All the common areas where very comfortable and the rooms were quite nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r244110786-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244110786</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Nice, comfortable stay</t>
+  </si>
+  <si>
+    <t>This is a clean comfortable hotel, friendly staff with $-$$ restaurant options next door. Convenient location to NW Houston, 290 corridor and the Beltway. Breakfast was sufficient, coffee was served in average sized cups (most LQ locations use the dreaded spicemen sized cups). Nice work out room-although 2 machines were down, treadmill and elliptical.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r234735430-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1540,39 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r228107798-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228107798</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Wow - Brand New La Quinta</t>
+  </si>
+  <si>
+    <t>Beautiful hotel in a safe and great location. Staff were wonderful and rooms were spacious and clean. This is a great hotel comparable to other three star hotels. Very unusual to see this brand with such great amenities. Would strongly recommend it to business travelers or families alike</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r220389640-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220389640</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Best LaQuinta yet!</t>
+  </si>
+  <si>
+    <t>I stayed at this property due to the close proximity of the surgery center that my dog was in.  She was able to stay with me here the night before her surgery.  The property and staff were awesome!  They even gave me a late check out the following day so I could stay until she was ready to be picked up.  Beautiful property!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r210553558-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1630,39 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r204759595-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204759595</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>What A Great Hotel!</t>
+  </si>
+  <si>
+    <t>I loved staying here!  The staff was great and very courteous and available 24/7 for anything that I needed.  The rooms are very spacious!  I will definitely stay here again!  They had a great variety for breakfast!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r193293956-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193293956</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Amazing hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best breakfast anywhere during my travel from Florida to Corpus Christi. Would stay here again in a heartbeat! Only spent one night at this hotel. Service, clean, fresh, friendly. Can't say enough good about this place. Room rate was very reasonable and well worth the price. </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r192742492-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
   </si>
   <si>
@@ -1078,6 +1703,51 @@
   </si>
   <si>
     <t>My wife and I usually stay at La Quinta Inns whenever we can for a variety of reasons. However, for this trip, I actually tried to get a room at a nearby hotel only because our son was staying there while in Houston on business. No rooms were available there, nor in a number of other hotels in the area. I then found this La Quinta through my telephone app and learned that rooms were available. We questioned the reason why rooms were available here but not nearby. "What is wrong with this hotel?" we asked ourselves. We reserved a room about 30 minutes before our arrival using the phone app. Upon our arrival we understood with great pleasure why rooms were available. This hotel is new, spotless, the staff very friendly, and not many people have discovered it yet...but they will! I wrote a review for a La Quinta in Orange, TX that was very similar...except...they had terrible coffee! THIS La Quinta has great coffee and offers fresh ground-fresh brewed Starbucks in the lobby!! I encourage travelers to check this location out and I believe you will be pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r184648453-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184648453</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Outstanding and Clean!</t>
+  </si>
+  <si>
+    <t>We had a short business trip, we really enjoyed the stay. Great service! We really loved the area. You can walk to Chick fil a, Whataburger. Restaurants and Sports Bar located just across from the hotel which is very convenient. Would Highly recommend the Hotel!!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d4551372-r181168562-La_Quinta_Inn_Suites_Houston_NW_Beltway8_WestRD-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181168562</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Brand New and Great</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and had a great experience. It is brand new and very clean. The decor is bright and unique, especially the public areas. It is in a great location close to quite a few businesses and a quick drive to the airport, which was great. I didn't have to fight the terrible Houston traffic to catch my flight! I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Rinesh P, General Manager at La Quinta Inn &amp; Suites Houston NW Beltway8/WestRD, responded to this reviewResponded October 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and had a great experience. It is brand new and very clean. The decor is bright and unique, especially the public areas. It is in a great location close to quite a few businesses and a quick drive to the airport, which was great. I didn't have to fight the terrible Houston traffic to catch my flight! I would definitely stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +2282,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1621,32 +2291,28 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1662,34 +2328,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1711,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1733,25 +2399,25 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -1760,7 +2426,7 @@
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1781,14 +2447,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>55</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1804,60 +2466,58 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1873,7 +2533,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1882,53 +2542,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1944,7 +2594,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1953,53 +2603,53 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -2015,7 +2665,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2024,29 +2674,31 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
         <v>5</v>
@@ -2062,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2084,7 +2736,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2093,34 +2745,34 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -2133,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="s">
         <v>101</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -2155,7 +2807,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2164,53 +2816,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" t="s">
-        <v>115</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -2226,7 +2864,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2235,53 +2873,53 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -2297,7 +2935,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2306,47 +2944,51 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -2362,7 +3004,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2371,25 +3013,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2411,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2433,7 +3075,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2442,28 +3084,28 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
@@ -2482,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2504,7 +3146,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2513,22 +3155,22 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
@@ -2552,10 +3194,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +3217,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2580,28 +3226,28 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
@@ -2619,10 +3265,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -2638,7 +3288,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2647,22 +3297,20 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" t="s">
-        <v>166</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
@@ -2674,22 +3322,26 @@
         <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>145</v>
+      </c>
+      <c r="X17" t="s">
+        <v>146</v>
+      </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
@@ -2705,7 +3357,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2714,25 +3366,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2741,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2753,10 +3405,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" t="s">
+        <v>146</v>
+      </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2772,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2781,31 +3437,35 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="n">
         <v>5</v>
       </c>
@@ -2816,10 +3476,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -2835,48 +3499,62 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
         <v>181</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>182</v>
-      </c>
-      <c r="J20" t="s">
-        <v>183</v>
-      </c>
-      <c r="K20" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" t="s">
-        <v>185</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>186</v>
-      </c>
-      <c r="O20" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -2892,7 +3570,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2901,29 +3579,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
@@ -2934,10 +3618,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s">
+        <v>180</v>
+      </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
@@ -2953,44 +3641,62 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
         <v>194</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="Y22" t="s">
         <v>195</v>
-      </c>
-      <c r="J22" t="s">
-        <v>196</v>
-      </c>
-      <c r="K22" t="s">
-        <v>197</v>
-      </c>
-      <c r="L22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
-      <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="23">
@@ -3006,47 +3712,41 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
         <v>200</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J23" t="s">
-        <v>202</v>
-      </c>
-      <c r="K23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23" t="s">
-        <v>204</v>
-      </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -3054,10 +3754,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
@@ -3073,34 +3777,34 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
         <v>206</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>207</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>208</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>178</v>
+      </c>
+      <c r="O24" t="s">
         <v>209</v>
-      </c>
-      <c r="L24" t="s">
-        <v>210</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>211</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3121,10 +3825,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>210</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
@@ -3164,34 +3872,28 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
+        <v>219</v>
+      </c>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -3207,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3216,22 +3918,22 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
@@ -3255,10 +3957,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>228</v>
+      </c>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -3274,7 +3980,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3283,25 +3989,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3310,7 +4016,7 @@
         <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3322,10 +4028,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
@@ -3341,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3350,25 +4060,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3392,7 +4102,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
@@ -3408,7 +4118,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3417,34 +4127,38 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3455,7 +4169,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -3471,7 +4185,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3480,39 +4194,45 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
@@ -3528,7 +4248,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3537,41 +4257,41 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3579,7 +4299,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
@@ -3595,7 +4315,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3604,35 +4324,41 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>256</v>
       </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>257</v>
-      </c>
       <c r="O32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3640,7 +4366,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
@@ -3656,7 +4382,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3665,28 +4391,28 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
@@ -3704,14 +4430,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>265</v>
-      </c>
-      <c r="X33" t="s">
-        <v>266</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
@@ -3727,7 +4449,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3736,35 +4458,31 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -3775,14 +4493,10 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>274</v>
-      </c>
-      <c r="X34" t="s">
-        <v>275</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
@@ -3798,7 +4512,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3807,25 +4521,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3846,14 +4560,10 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>283</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
         <v>284</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="36">
@@ -3893,15 +4603,17 @@
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
@@ -3911,14 +4623,10 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>292</v>
-      </c>
-      <c r="X36" t="s">
-        <v>293</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
@@ -3934,62 +4642,48 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
         <v>295</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>296</v>
-      </c>
-      <c r="J37" t="s">
-        <v>297</v>
-      </c>
-      <c r="K37" t="s">
-        <v>298</v>
-      </c>
-      <c r="L37" t="s">
-        <v>299</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>301</v>
-      </c>
-      <c r="X37" t="s">
-        <v>302</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
@@ -4005,43 +4699,41 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s">
+        <v>303</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>304</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>305</v>
-      </c>
-      <c r="J38" t="s">
-        <v>306</v>
-      </c>
-      <c r="K38" t="s">
-        <v>307</v>
-      </c>
-      <c r="L38" t="s">
-        <v>308</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s">
-        <v>309</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
       </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4052,7 +4744,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
@@ -4068,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4077,49 +4769,35 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="N39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40">
@@ -4135,40 +4813,40 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
         <v>315</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>316</v>
       </c>
-      <c r="J40" t="s">
-        <v>317</v>
-      </c>
-      <c r="K40" t="s">
-        <v>318</v>
-      </c>
-      <c r="L40" t="s">
-        <v>319</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>320</v>
-      </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
@@ -4186,7 +4864,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
@@ -4202,43 +4880,43 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
         <v>321</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>322</v>
-      </c>
-      <c r="J41" t="s">
-        <v>323</v>
-      </c>
-      <c r="K41" t="s">
-        <v>324</v>
-      </c>
-      <c r="L41" t="s">
-        <v>325</v>
-      </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4253,7 +4931,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42">
@@ -4269,7 +4947,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4278,25 +4956,25 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4320,7 +4998,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43">
@@ -4336,7 +5014,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4345,25 +5023,25 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J43" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4372,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -4387,7 +5065,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
@@ -4403,7 +5081,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4412,30 +5090,34 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -4449,7 +5131,9 @@
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
+      <c r="Y44" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4464,7 +5148,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4473,44 +5157,50 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J45" t="s">
-        <v>346</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+        <v>340</v>
+      </c>
+      <c r="K45" t="s">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
+      </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
+      <c r="W45" t="s">
+        <v>343</v>
+      </c>
+      <c r="X45" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4525,34 +5215,34 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
         <v>348</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>349</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>350</v>
       </c>
-      <c r="K46" t="s">
-        <v>351</v>
-      </c>
-      <c r="L46" t="s">
-        <v>352</v>
-      </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4561,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -4576,7 +5266,2338 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
         <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>100</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s">
+        <v>373</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>374</v>
+      </c>
+      <c r="O50" t="s">
+        <v>209</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>380</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" t="s">
+        <v>395</v>
+      </c>
+      <c r="K54" t="s">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s">
+        <v>397</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>404</v>
+      </c>
+      <c r="J56" t="s">
+        <v>405</v>
+      </c>
+      <c r="K56" t="s">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s">
+        <v>407</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" t="s">
+        <v>412</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>413</v>
+      </c>
+      <c r="O57" t="s">
+        <v>100</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>416</v>
+      </c>
+      <c r="J58" t="s">
+        <v>417</v>
+      </c>
+      <c r="K58" t="s">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s">
+        <v>419</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>420</v>
+      </c>
+      <c r="O58" t="s">
+        <v>100</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>421</v>
+      </c>
+      <c r="X58" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>425</v>
+      </c>
+      <c r="J59" t="s">
+        <v>426</v>
+      </c>
+      <c r="K59" t="s">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s">
+        <v>428</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>429</v>
+      </c>
+      <c r="O59" t="s">
+        <v>86</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>430</v>
+      </c>
+      <c r="X59" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>434</v>
+      </c>
+      <c r="J60" t="s">
+        <v>435</v>
+      </c>
+      <c r="K60" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s">
+        <v>437</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>429</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>430</v>
+      </c>
+      <c r="X60" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>440</v>
+      </c>
+      <c r="J61" t="s">
+        <v>441</v>
+      </c>
+      <c r="K61" t="s">
+        <v>442</v>
+      </c>
+      <c r="L61" t="s">
+        <v>443</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>429</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>430</v>
+      </c>
+      <c r="X61" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>446</v>
+      </c>
+      <c r="J62" t="s">
+        <v>447</v>
+      </c>
+      <c r="K62" t="s">
+        <v>448</v>
+      </c>
+      <c r="L62" t="s">
+        <v>449</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>450</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>451</v>
+      </c>
+      <c r="X62" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>454</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>455</v>
+      </c>
+      <c r="J63" t="s">
+        <v>456</v>
+      </c>
+      <c r="K63" t="s">
+        <v>457</v>
+      </c>
+      <c r="L63" t="s">
+        <v>458</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>459</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>460</v>
+      </c>
+      <c r="X63" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>463</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>464</v>
+      </c>
+      <c r="J64" t="s">
+        <v>465</v>
+      </c>
+      <c r="K64" t="s">
+        <v>466</v>
+      </c>
+      <c r="L64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>468</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>469</v>
+      </c>
+      <c r="X64" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>472</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>473</v>
+      </c>
+      <c r="J65" t="s">
+        <v>474</v>
+      </c>
+      <c r="K65" t="s">
+        <v>475</v>
+      </c>
+      <c r="L65" t="s">
+        <v>476</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>477</v>
+      </c>
+      <c r="O65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>478</v>
+      </c>
+      <c r="X65" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>481</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>482</v>
+      </c>
+      <c r="J66" t="s">
+        <v>483</v>
+      </c>
+      <c r="K66" t="s">
+        <v>484</v>
+      </c>
+      <c r="L66" t="s">
+        <v>485</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>486</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>487</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>488</v>
+      </c>
+      <c r="J67" t="s">
+        <v>489</v>
+      </c>
+      <c r="K67" t="s">
+        <v>490</v>
+      </c>
+      <c r="L67" t="s">
+        <v>491</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>492</v>
+      </c>
+      <c r="O67" t="s">
+        <v>86</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>493</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>494</v>
+      </c>
+      <c r="J68" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>492</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>498</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>499</v>
+      </c>
+      <c r="J69" t="s">
+        <v>500</v>
+      </c>
+      <c r="K69" t="s">
+        <v>501</v>
+      </c>
+      <c r="L69" t="s">
+        <v>502</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>503</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>504</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>505</v>
+      </c>
+      <c r="J70" t="s">
+        <v>506</v>
+      </c>
+      <c r="K70" t="s">
+        <v>507</v>
+      </c>
+      <c r="L70" t="s">
+        <v>508</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>503</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>509</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>510</v>
+      </c>
+      <c r="J71" t="s">
+        <v>511</v>
+      </c>
+      <c r="K71" t="s">
+        <v>512</v>
+      </c>
+      <c r="L71" t="s">
+        <v>513</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>514</v>
+      </c>
+      <c r="O71" t="s">
+        <v>209</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>515</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>516</v>
+      </c>
+      <c r="J72" t="s">
+        <v>517</v>
+      </c>
+      <c r="K72" t="s">
+        <v>518</v>
+      </c>
+      <c r="L72" t="s">
+        <v>519</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>520</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>521</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>522</v>
+      </c>
+      <c r="J73" t="s">
+        <v>523</v>
+      </c>
+      <c r="K73" t="s">
+        <v>524</v>
+      </c>
+      <c r="L73" t="s">
+        <v>525</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>526</v>
+      </c>
+      <c r="O73" t="s">
+        <v>100</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>528</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>529</v>
+      </c>
+      <c r="J74" t="s">
+        <v>530</v>
+      </c>
+      <c r="K74" t="s">
+        <v>531</v>
+      </c>
+      <c r="L74" t="s">
+        <v>532</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>533</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>535</v>
+      </c>
+      <c r="J75" t="s">
+        <v>536</v>
+      </c>
+      <c r="K75" t="s">
+        <v>537</v>
+      </c>
+      <c r="L75" t="s">
+        <v>538</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>533</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>539</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>540</v>
+      </c>
+      <c r="J76" t="s">
+        <v>541</v>
+      </c>
+      <c r="K76" t="s">
+        <v>542</v>
+      </c>
+      <c r="L76" t="s">
+        <v>543</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>544</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>545</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>546</v>
+      </c>
+      <c r="J77" t="s">
+        <v>547</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>548</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>549</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>550</v>
+      </c>
+      <c r="J78" t="s">
+        <v>551</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>552</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>553</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>554</v>
+      </c>
+      <c r="J79" t="s">
+        <v>555</v>
+      </c>
+      <c r="K79" t="s">
+        <v>556</v>
+      </c>
+      <c r="L79" t="s">
+        <v>557</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>552</v>
+      </c>
+      <c r="O79" t="s">
+        <v>86</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>559</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>560</v>
+      </c>
+      <c r="J80" t="s">
+        <v>561</v>
+      </c>
+      <c r="K80" t="s">
+        <v>562</v>
+      </c>
+      <c r="L80" t="s">
+        <v>563</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>564</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>62627</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>565</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>566</v>
+      </c>
+      <c r="J81" t="s">
+        <v>567</v>
+      </c>
+      <c r="K81" t="s">
+        <v>568</v>
+      </c>
+      <c r="L81" t="s">
+        <v>569</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>570</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>571</v>
+      </c>
+      <c r="X81" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
